--- a/FreeCRMTest/src/main/java/com/crm/qa/testdata/CRMTestData.xlsx
+++ b/FreeCRMTest/src/main/java/com/crm/qa/testdata/CRMTestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\auto\FreeCRMTest\src\main\java\com\crm\qa\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suresh\git\FirstRepo\FreeCRMTest\src\main\java\com\crm\qa\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCADA8C-27A7-4B1B-92F0-2598A9CDF87D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0AD9963-0B51-4A87-B48C-6613F4696BA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0A4DBC28-0106-40D2-BFC9-CD3CBF627444}"/>
   </bookViews>
@@ -443,7 +443,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
